--- a/templates/HPS Jasa.xlsx
+++ b/templates/HPS Jasa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="11325" windowHeight="8895" tabRatio="797" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="15" windowWidth="11325" windowHeight="8895" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="HPS BL &amp; NON Personil " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>Orang</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve"> = Rp.</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>Para Legal</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t xml:space="preserve"> (S3/S2/S1)</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pengalaman Kerja </t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>JUMLAH I + II</t>
   </si>
   <si>
-    <t>……………………………</t>
-  </si>
-  <si>
     <t>HARGA PRAKIRAAN SENDIRI (HPS)</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>Terbilang : (Satu Milyar Enam Ratus Empat Puluh Delapan Juta Lima Ratus Empat Puluh Dua Ribu Lima Ratus Rupiah)</t>
   </si>
   <si>
     <t>#namapengadaan#</t>
@@ -244,127 +232,13 @@
     <t>#panitia# #namapengadaan#</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#ketua#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / KETUA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> #sekretaris# </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/ SEKRETARIS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#anggota1#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / ANGGOTA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#anggota2#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / ANGGOTA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#anggota3#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / ANGGOTA</t>
-    </r>
-  </si>
-  <si>
     <t>#namakadiv#</t>
+  </si>
+  <si>
+    <t>Terbilang : ( #terbilang# Rupiah)</t>
+  </si>
+  <si>
+    <t>#ketua#</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,63 +1127,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1322,50 +1139,11 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1392,9 +1170,108 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1697,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1730,73 +1607,73 @@
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
     </row>
     <row r="3" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
+      <c r="B3" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
+      <c r="B4" s="146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
-      <c r="B5" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
+      <c r="B5" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
     </row>
@@ -1819,57 +1696,57 @@
     </row>
     <row r="7" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="124" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="125" t="s">
+      <c r="B7" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="143" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="133" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="134"/>
+      <c r="J7" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="K7" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="125" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="130" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="132" t="s">
-        <v>30</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="134"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="126"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
@@ -1879,26 +1756,26 @@
       <c r="C9" s="94"/>
       <c r="D9" s="95"/>
       <c r="E9" s="95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="106"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="94" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="116" t="s">
+      <c r="L9" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="116" t="str">
+      <c r="M9" s="97" t="str">
         <f>+L9</f>
         <v>(Rp.)</v>
       </c>
@@ -1924,7 +1801,7 @@
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="103" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="37" t="s">
@@ -1949,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -1982,7 +1859,7 @@
       <c r="K13" s="40"/>
       <c r="L13" s="44"/>
       <c r="M13" s="44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1991,7 +1868,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="39"/>
       <c r="C14" s="46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="47"/>
@@ -2012,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
@@ -2028,7 +1905,7 @@
       </c>
       <c r="K15" s="91"/>
       <c r="L15" s="50"/>
-      <c r="M15" s="117">
+      <c r="M15" s="98">
         <f>+L15*K15*J15*G15</f>
         <v>0</v>
       </c>
@@ -2045,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
@@ -2061,7 +1938,7 @@
       </c>
       <c r="K16" s="91"/>
       <c r="L16" s="50"/>
-      <c r="M16" s="117">
+      <c r="M16" s="98">
         <f>+L16*K16*J16*G16</f>
         <v>0</v>
       </c>
@@ -2074,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
@@ -2090,7 +1967,7 @@
       </c>
       <c r="K17" s="91"/>
       <c r="L17" s="50"/>
-      <c r="M17" s="117">
+      <c r="M17" s="98">
         <f>+L17*K17*J17*G17</f>
         <v>0</v>
       </c>
@@ -2103,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
@@ -2119,7 +1996,7 @@
       </c>
       <c r="K18" s="91"/>
       <c r="L18" s="50"/>
-      <c r="M18" s="117">
+      <c r="M18" s="98">
         <f>+L18*K18*J18*G18</f>
         <v>0</v>
       </c>
@@ -2130,7 +2007,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="52"/>
       <c r="C19" s="51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="49"/>
@@ -2141,7 +2018,7 @@
       <c r="J19" s="39"/>
       <c r="K19" s="91"/>
       <c r="L19" s="50"/>
-      <c r="M19" s="117"/>
+      <c r="M19" s="98"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -2151,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
@@ -2167,7 +2044,7 @@
       </c>
       <c r="K20" s="91"/>
       <c r="L20" s="50"/>
-      <c r="M20" s="117">
+      <c r="M20" s="98">
         <f>+L20*K20*J20*G20</f>
         <v>0</v>
       </c>
@@ -2187,7 +2064,7 @@
       <c r="J21" s="39"/>
       <c r="K21" s="91"/>
       <c r="L21" s="50"/>
-      <c r="M21" s="117"/>
+      <c r="M21" s="98"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
@@ -2206,7 +2083,7 @@
       <c r="L22" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="118">
+      <c r="M22" s="99">
         <f>SUM(M15:M21)</f>
         <v>0</v>
       </c>
@@ -2224,11 +2101,11 @@
     </row>
     <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="136" t="s">
-        <v>63</v>
+      <c r="B23" s="104" t="s">
+        <v>60</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
@@ -2239,7 +2116,7 @@
       <c r="J23" s="39"/>
       <c r="K23" s="91"/>
       <c r="L23" s="44"/>
-      <c r="M23" s="117"/>
+      <c r="M23" s="98"/>
       <c r="N23" s="31"/>
       <c r="O23" s="33"/>
       <c r="P23" s="30"/>
@@ -2250,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
@@ -2266,7 +2143,7 @@
       </c>
       <c r="K24" s="91"/>
       <c r="L24" s="50"/>
-      <c r="M24" s="117">
+      <c r="M24" s="98">
         <f>+L24*K24*J24*G24</f>
         <v>0</v>
       </c>
@@ -2280,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
@@ -2296,7 +2173,7 @@
       </c>
       <c r="K25" s="91"/>
       <c r="L25" s="50"/>
-      <c r="M25" s="117">
+      <c r="M25" s="98">
         <f>+L25*K25*J25*G25</f>
         <v>0</v>
       </c>
@@ -2310,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
@@ -2326,7 +2203,7 @@
       </c>
       <c r="K26" s="91"/>
       <c r="L26" s="50"/>
-      <c r="M26" s="117">
+      <c r="M26" s="98">
         <f>+L26*K26*J26*G26</f>
         <v>0</v>
       </c>
@@ -2340,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
@@ -2356,7 +2233,7 @@
       </c>
       <c r="K27" s="91"/>
       <c r="L27" s="50"/>
-      <c r="M27" s="117">
+      <c r="M27" s="98">
         <f>+L27*K27*J27*G27</f>
         <v>0</v>
       </c>
@@ -2368,7 +2245,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="52"/>
       <c r="C28" s="51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
@@ -2379,7 +2256,7 @@
       <c r="J28" s="39"/>
       <c r="K28" s="91"/>
       <c r="L28" s="50"/>
-      <c r="M28" s="117"/>
+      <c r="M28" s="98"/>
       <c r="N28" s="31"/>
       <c r="O28" s="33"/>
       <c r="P28" s="30"/>
@@ -2390,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="49"/>
@@ -2406,7 +2283,7 @@
       </c>
       <c r="K29" s="91"/>
       <c r="L29" s="50"/>
-      <c r="M29" s="117">
+      <c r="M29" s="98">
         <f>+L29*K29*J29*G29</f>
         <v>0</v>
       </c>
@@ -2427,7 +2304,7 @@
       <c r="J30" s="39"/>
       <c r="K30" s="91"/>
       <c r="L30" s="50"/>
-      <c r="M30" s="117"/>
+      <c r="M30" s="98"/>
       <c r="N30" s="31"/>
       <c r="O30" s="33"/>
       <c r="P30" s="30"/>
@@ -2447,7 +2324,7 @@
       <c r="L31" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M31" s="118">
+      <c r="M31" s="99">
         <f>SUM(M24:M30)</f>
         <v>0</v>
       </c>
@@ -2465,11 +2342,11 @@
     </row>
     <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="136" t="s">
-        <v>64</v>
+      <c r="B32" s="104" t="s">
+        <v>61</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="49"/>
@@ -2480,7 +2357,7 @@
       <c r="J32" s="39"/>
       <c r="K32" s="91"/>
       <c r="L32" s="50"/>
-      <c r="M32" s="117"/>
+      <c r="M32" s="98"/>
       <c r="N32" s="31"/>
       <c r="O32" s="33"/>
       <c r="P32" s="30"/>
@@ -2491,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="49"/>
@@ -2507,7 +2384,7 @@
       </c>
       <c r="K33" s="91"/>
       <c r="L33" s="50"/>
-      <c r="M33" s="117">
+      <c r="M33" s="98">
         <f>+L33*K33*J33*G33</f>
         <v>0</v>
       </c>
@@ -2521,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="49"/>
@@ -2537,7 +2414,7 @@
       </c>
       <c r="K34" s="91"/>
       <c r="L34" s="50"/>
-      <c r="M34" s="117">
+      <c r="M34" s="98">
         <f>+L34*K34*J34*G34</f>
         <v>0</v>
       </c>
@@ -2551,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="49"/>
@@ -2567,7 +2444,7 @@
       </c>
       <c r="K35" s="91"/>
       <c r="L35" s="50"/>
-      <c r="M35" s="117">
+      <c r="M35" s="98">
         <f>+L35*K35*J35*G35</f>
         <v>0</v>
       </c>
@@ -2581,7 +2458,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="49"/>
@@ -2597,7 +2474,7 @@
       </c>
       <c r="K36" s="91"/>
       <c r="L36" s="50"/>
-      <c r="M36" s="117">
+      <c r="M36" s="98">
         <f>+L36*K36*J36*G36</f>
         <v>0</v>
       </c>
@@ -2609,7 +2486,7 @@
       <c r="A37" s="6"/>
       <c r="B37" s="52"/>
       <c r="C37" s="51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="49"/>
@@ -2620,7 +2497,7 @@
       <c r="J37" s="39"/>
       <c r="K37" s="91"/>
       <c r="L37" s="50"/>
-      <c r="M37" s="117"/>
+      <c r="M37" s="98"/>
       <c r="N37" s="31"/>
       <c r="O37" s="33"/>
       <c r="P37" s="30"/>
@@ -2631,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="49"/>
@@ -2647,7 +2524,7 @@
       </c>
       <c r="K38" s="91"/>
       <c r="L38" s="50"/>
-      <c r="M38" s="117">
+      <c r="M38" s="98">
         <f>+L38*K38*J38*G38</f>
         <v>0</v>
       </c>
@@ -2668,7 +2545,7 @@
       <c r="J39" s="39"/>
       <c r="K39" s="91"/>
       <c r="L39" s="50"/>
-      <c r="M39" s="117"/>
+      <c r="M39" s="98"/>
       <c r="N39" s="31"/>
       <c r="O39" s="33"/>
       <c r="P39" s="30"/>
@@ -2686,7 +2563,7 @@
       <c r="J40" s="39"/>
       <c r="K40" s="91"/>
       <c r="L40" s="50"/>
-      <c r="M40" s="118">
+      <c r="M40" s="99">
         <f>SUM(M33:M39)</f>
         <v>0</v>
       </c>
@@ -2704,11 +2581,11 @@
     </row>
     <row r="41" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="136" t="s">
-        <v>65</v>
+      <c r="B41" s="104" t="s">
+        <v>62</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="49"/>
@@ -2719,7 +2596,7 @@
       <c r="J41" s="39"/>
       <c r="K41" s="91"/>
       <c r="L41" s="50"/>
-      <c r="M41" s="117"/>
+      <c r="M41" s="98"/>
       <c r="N41" s="31"/>
       <c r="O41" s="33"/>
       <c r="P41" s="30"/>
@@ -2730,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="49"/>
@@ -2746,7 +2623,7 @@
       </c>
       <c r="K42" s="91"/>
       <c r="L42" s="50"/>
-      <c r="M42" s="117">
+      <c r="M42" s="98">
         <f>+L42*K42*J42*G42</f>
         <v>0</v>
       </c>
@@ -2760,7 +2637,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
@@ -2776,7 +2653,7 @@
       </c>
       <c r="K43" s="91"/>
       <c r="L43" s="50"/>
-      <c r="M43" s="117">
+      <c r="M43" s="98">
         <f>+L43*K43*J43*G43</f>
         <v>0</v>
       </c>
@@ -2790,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
@@ -2806,7 +2683,7 @@
       </c>
       <c r="K44" s="91"/>
       <c r="L44" s="50"/>
-      <c r="M44" s="117">
+      <c r="M44" s="98">
         <f>+L44*K44*J44*G44</f>
         <v>0</v>
       </c>
@@ -2820,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="49"/>
@@ -2836,7 +2713,7 @@
       </c>
       <c r="K45" s="91"/>
       <c r="L45" s="50"/>
-      <c r="M45" s="117">
+      <c r="M45" s="98">
         <f>+L45*K45*J45*G45</f>
         <v>0</v>
       </c>
@@ -2848,7 +2725,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="52"/>
       <c r="C46" s="51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D46" s="49"/>
       <c r="E46" s="49"/>
@@ -2859,7 +2736,7 @@
       <c r="J46" s="39"/>
       <c r="K46" s="91"/>
       <c r="L46" s="50"/>
-      <c r="M46" s="117"/>
+      <c r="M46" s="98"/>
       <c r="N46" s="31"/>
       <c r="O46" s="33"/>
       <c r="P46" s="30"/>
@@ -2870,14 +2747,10 @@
         <v>5</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="49"/>
       <c r="G47" s="39"/>
       <c r="H47" s="40"/>
@@ -2890,7 +2763,7 @@
       </c>
       <c r="K47" s="91"/>
       <c r="L47" s="50"/>
-      <c r="M47" s="117">
+      <c r="M47" s="98">
         <f>+L47*K47*J47*G47</f>
         <v>0</v>
       </c>
@@ -2911,7 +2784,7 @@
       <c r="J48" s="39"/>
       <c r="K48" s="40"/>
       <c r="L48" s="50"/>
-      <c r="M48" s="117"/>
+      <c r="M48" s="98"/>
       <c r="N48" s="31"/>
       <c r="O48" s="33"/>
       <c r="P48" s="30"/>
@@ -2929,7 +2802,7 @@
       <c r="J49" s="39"/>
       <c r="K49" s="40"/>
       <c r="L49" s="50"/>
-      <c r="M49" s="117"/>
+      <c r="M49" s="98"/>
       <c r="N49" s="31"/>
       <c r="O49" s="33"/>
       <c r="P49" s="30"/>
@@ -2949,7 +2822,7 @@
       <c r="L50" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="118">
+      <c r="M50" s="99">
         <f>SUM(M42:M48)</f>
         <v>0</v>
       </c>
@@ -2978,7 +2851,7 @@
       <c r="J51" s="84"/>
       <c r="K51" s="85"/>
       <c r="L51" s="86"/>
-      <c r="M51" s="119"/>
+      <c r="M51" s="100"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="30" t="e">
@@ -2988,7 +2861,7 @@
     </row>
     <row r="52" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="137"/>
+      <c r="B52" s="105"/>
       <c r="C52" s="78"/>
       <c r="D52" s="79"/>
       <c r="E52" s="79"/>
@@ -2997,11 +2870,11 @@
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="L52" s="103"/>
-      <c r="M52" s="138">
+      <c r="K52" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" s="124"/>
+      <c r="M52" s="106">
         <f>+M50+M40+M31+M22</f>
         <v>0</v>
       </c>
@@ -3010,11 +2883,11 @@
     </row>
     <row r="53" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="135" t="s">
+      <c r="B53" s="103" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D53" s="65"/>
       <c r="E53" s="65"/>
@@ -3025,7 +2898,7 @@
       <c r="J53" s="39"/>
       <c r="K53" s="40"/>
       <c r="L53" s="39"/>
-      <c r="M53" s="139"/>
+      <c r="M53" s="107"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
@@ -3042,7 +2915,7 @@
       <c r="J54" s="39"/>
       <c r="K54" s="40"/>
       <c r="L54" s="44"/>
-      <c r="M54" s="121"/>
+      <c r="M54" s="101"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
@@ -3052,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D55" s="68"/>
       <c r="E55" s="69"/>
@@ -3081,7 +2954,7 @@
       <c r="I56" s="55"/>
       <c r="J56" s="89"/>
       <c r="K56" s="56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L56" s="57"/>
       <c r="M56" s="58">
@@ -3121,7 +2994,7 @@
       <c r="J58" s="89"/>
       <c r="K58" s="40"/>
       <c r="L58" s="50"/>
-      <c r="M58" s="117"/>
+      <c r="M58" s="98"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
@@ -3143,7 +3016,7 @@
       <c r="K59" s="40"/>
       <c r="L59" s="44"/>
       <c r="M59" s="44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -3152,7 +3025,7 @@
       <c r="A60" s="1"/>
       <c r="B60" s="56"/>
       <c r="C60" s="64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D60" s="59"/>
       <c r="E60" s="59"/>
@@ -3162,17 +3035,17 @@
       <c r="I60" s="55"/>
       <c r="J60" s="89"/>
       <c r="K60" s="56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L60" s="57"/>
-      <c r="M60" s="122">
+      <c r="M60" s="102">
         <f>L60*J60</f>
         <v>0</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="87"/>
       <c r="C61" s="80"/>
@@ -3185,13 +3058,13 @@
       <c r="J61" s="90"/>
       <c r="K61" s="85"/>
       <c r="L61" s="86"/>
-      <c r="M61" s="140"/>
+      <c r="M61" s="108"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="137"/>
+      <c r="B62" s="105"/>
       <c r="C62" s="78"/>
       <c r="D62" s="79"/>
       <c r="E62" s="79"/>
@@ -3200,11 +3073,11 @@
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="L62" s="103"/>
-      <c r="M62" s="138">
+      <c r="K62" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="L62" s="124"/>
+      <c r="M62" s="106">
         <f>M60+M56</f>
         <v>0</v>
       </c>
@@ -3213,9 +3086,9 @@
     </row>
     <row r="63" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="141"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D63" s="72"/>
       <c r="E63" s="72"/>
@@ -3226,7 +3099,7 @@
       <c r="J63" s="72"/>
       <c r="K63" s="72"/>
       <c r="L63" s="73"/>
-      <c r="M63" s="142">
+      <c r="M63" s="110">
         <f>M62+M52</f>
         <v>0</v>
       </c>
@@ -3235,7 +3108,7 @@
     </row>
     <row r="64" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="143"/>
+      <c r="B64" s="111"/>
       <c r="C64" s="74" t="s">
         <v>10</v>
       </c>
@@ -3248,7 +3121,7 @@
       <c r="J64" s="75"/>
       <c r="K64" s="75"/>
       <c r="L64" s="76"/>
-      <c r="M64" s="144">
+      <c r="M64" s="112">
         <f>M63*0.1</f>
         <v>0</v>
       </c>
@@ -3257,27 +3130,27 @@
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="145"/>
-      <c r="C65" s="146" t="s">
+      <c r="B65" s="113"/>
+      <c r="C65" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="147"/>
-      <c r="E65" s="147"/>
-      <c r="F65" s="147"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
-      <c r="J65" s="147"/>
-      <c r="K65" s="147"/>
-      <c r="L65" s="148"/>
-      <c r="M65" s="149">
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="115"/>
+      <c r="J65" s="115"/>
+      <c r="K65" s="115"/>
+      <c r="L65" s="116"/>
+      <c r="M65" s="117">
         <f>M64+M63</f>
         <v>0</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -3298,7 +3171,7 @@
       <c r="A67" s="1"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="1"/>
@@ -3338,13 +3211,13 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="J69" s="111"/>
-      <c r="K69" s="111"/>
-      <c r="L69" s="111"/>
-      <c r="M69" s="111"/>
+      <c r="I69" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69" s="120"/>
+      <c r="K69" s="120"/>
+      <c r="L69" s="120"/>
+      <c r="M69" s="120"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
@@ -3366,43 +3239,43 @@
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="112"/>
-      <c r="D71" s="112"/>
-      <c r="E71" s="112"/>
+      <c r="B71" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="121"/>
+      <c r="D71" s="121"/>
+      <c r="E71" s="121"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="J71" s="111"/>
-      <c r="K71" s="111"/>
-      <c r="L71" s="111"/>
-      <c r="M71" s="111"/>
+      <c r="I71" s="145" t="s">
+        <v>65</v>
+      </c>
+      <c r="J71" s="120"/>
+      <c r="K71" s="120"/>
+      <c r="L71" s="120"/>
+      <c r="M71" s="120"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="112"/>
-      <c r="D72" s="112"/>
-      <c r="E72" s="112"/>
+      <c r="B72" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="121"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="121"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="111" t="s">
-        <v>45</v>
-      </c>
-      <c r="J72" s="111"/>
-      <c r="K72" s="111"/>
-      <c r="L72" s="111"/>
-      <c r="M72" s="111"/>
+      <c r="I72" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" s="120"/>
+      <c r="K72" s="120"/>
+      <c r="L72" s="120"/>
+      <c r="M72" s="120"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
@@ -3432,14 +3305,12 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="10" t="s">
-        <v>70</v>
+      <c r="I74" s="153" t="s">
+        <v>68</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="M74" s="10"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
@@ -3477,23 +3348,19 @@
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="150" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="150"/>
-      <c r="D77" s="150"/>
-      <c r="E77" s="150"/>
+      <c r="B77" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="122"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="122"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="I77" s="10"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="M77" s="10"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
@@ -3534,14 +3401,10 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="I80" s="10"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="M80" s="10"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
@@ -3586,14 +3449,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="I83" s="10"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="M83" s="10"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
@@ -3638,18 +3497,14 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="I86" s="10"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="M86" s="10"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -3683,7 +3538,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3697,17 +3552,17 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="21"/>
+      <c r="G90" s="118"/>
+      <c r="H90" s="119"/>
+      <c r="I90" s="119"/>
+      <c r="J90" s="119"/>
+      <c r="K90" s="119"/>
+      <c r="L90" s="119"/>
+      <c r="M90" s="119"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
@@ -3715,13 +3570,13 @@
       <c r="A91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="9"/>
+      <c r="G91" s="5"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
-      <c r="M91" s="18"/>
+      <c r="M91" s="17"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
@@ -3729,13 +3584,13 @@
       <c r="A92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="9"/>
+      <c r="G92" s="5"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="22"/>
       <c r="K92" s="23"/>
       <c r="L92" s="17"/>
-      <c r="M92" s="18"/>
+      <c r="M92" s="17"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
@@ -3743,13 +3598,13 @@
       <c r="A93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="9"/>
+      <c r="G93" s="5"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="22"/>
       <c r="K93" s="23"/>
       <c r="L93" s="17"/>
-      <c r="M93" s="18"/>
+      <c r="M93" s="17"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
@@ -3757,13 +3612,13 @@
       <c r="A94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="9"/>
+      <c r="G94" s="5"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="22"/>
       <c r="K94" s="23"/>
       <c r="L94" s="17"/>
-      <c r="M94" s="18"/>
+      <c r="M94" s="17"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
@@ -3771,31 +3626,31 @@
       <c r="A95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="9"/>
+      <c r="G95" s="5"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="22"/>
       <c r="K95" s="23"/>
       <c r="L95" s="17"/>
-      <c r="M95" s="18"/>
+      <c r="M95" s="17"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="25"/>
-      <c r="L96" s="26"/>
-      <c r="M96" s="27"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3856,17 +3711,16 @@
     <row r="142" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="I71:M71"/>
-    <mergeCell ref="I72:M72"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="G7:G8"/>
@@ -3874,12 +3728,13 @@
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="I72:M72"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="I71:M71"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="2.35" bottom="0.39370078740157483" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -3892,7 +3747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -3954,7 +3809,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -3969,7 +3824,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -3984,7 +3839,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -3995,7 +3850,7 @@
         <v>3300000</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="1"/>
@@ -4005,7 +3860,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -4016,7 +3871,7 @@
         <v>2450000</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="1"/>
@@ -4026,7 +3881,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -4037,7 +3892,7 @@
         <v>2000000</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="1"/>
@@ -4047,7 +3902,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -4058,7 +3913,7 @@
         <v>1150000</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="1"/>
@@ -4068,7 +3923,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -4079,7 +3934,7 @@
         <v>585000</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="1"/>

--- a/templates/HPS Jasa.xlsx
+++ b/templates/HPS Jasa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="11325" windowHeight="8895" tabRatio="797"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ref hps'!$B$2:$J$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'HPS BL &amp; NON Personil '!$7:$9</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -175,9 +175,6 @@
     <t>TERKAIT BIAYA ADMINISTRASI TAMBAHAN PADA SISTEM PPOB</t>
   </si>
   <si>
-    <t>PH. KEPALA DIVISI UMUM DAN MANAJEMEN KANTOR PUSAT</t>
-  </si>
-  <si>
     <t>BIAYA   LANGSUNG  NON PERSONIL  ;</t>
   </si>
   <si>
@@ -214,41 +211,32 @@
     <t>#namapengadaan#</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">JAKARTA, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>#tgllengkap#</t>
-    </r>
-  </si>
-  <si>
-    <t>#panitia# #namapengadaan#</t>
-  </si>
-  <si>
-    <t>#namakadiv#</t>
-  </si>
-  <si>
     <t>Terbilang : ( #terbilang# Rupiah)</t>
   </si>
   <si>
-    <t>#ketua#</t>
+    <t>#listpanitia#</t>
+  </si>
+  <si>
+    <t>#pengesah#</t>
+  </si>
+  <si>
+    <t>#namapengesah#</t>
+  </si>
+  <si>
+    <t>JAKARTA, #tgllengkap#</t>
+  </si>
+  <si>
+    <t>#namapanitia# PENGADAAN BARANG / JASA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1172,6 +1160,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1187,6 +1176,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1235,43 +1233,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1571,14 +1559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
@@ -1597,7 +1585,7 @@
     <col min="15" max="15" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -1606,78 +1594,78 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="150" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-    </row>
-    <row r="3" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="149" t="s">
+    <row r="2" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="149" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+    </row>
+    <row r="3" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="146" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
+    <row r="4" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="36"/>
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1694,63 +1682,63 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="37.5" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="141" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="143" t="s">
+      <c r="D7" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="143" t="s">
+      <c r="E7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="133" t="s">
+      <c r="H7" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="134"/>
-      <c r="J7" s="137" t="s">
+      <c r="I7" s="138"/>
+      <c r="J7" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="139" t="s">
+      <c r="K7" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="127" t="s">
+      <c r="L7" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="125" t="s">
+      <c r="M7" s="129" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="58.5" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="126"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="130"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="21.95" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="94"/>
       <c r="C9" s="94"/>
@@ -1764,8 +1752,8 @@
       <c r="G9" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
       <c r="J9" s="94" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1770,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1799,7 +1787,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="103" t="s">
         <v>9</v>
@@ -1820,7 +1808,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="39" t="s">
         <v>11</v>
@@ -1845,7 +1833,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="39"/>
       <c r="C13" s="45"/>
@@ -1864,7 +1852,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="39"/>
       <c r="C14" s="46" t="s">
@@ -1883,7 +1871,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="52">
         <v>1</v>
@@ -1916,7 +1904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="52">
         <v>2</v>
@@ -1945,7 +1933,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="52">
         <v>3</v>
@@ -1974,7 +1962,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="52">
         <v>4</v>
@@ -2003,7 +1991,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="52"/>
       <c r="C19" s="51" t="s">
@@ -2022,7 +2010,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="52">
         <v>1</v>
@@ -2051,7 +2039,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="52"/>
       <c r="C21" s="48"/>
@@ -2068,7 +2056,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="52"/>
       <c r="C22" s="48"/>
@@ -2099,10 +2087,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="104" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>46</v>
@@ -2121,7 +2109,7 @@
       <c r="O23" s="33"/>
       <c r="P23" s="30"/>
     </row>
-    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="52">
         <v>1</v>
@@ -2151,7 +2139,7 @@
       <c r="O24" s="33"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="52">
         <v>2</v>
@@ -2181,7 +2169,7 @@
       <c r="O25" s="33"/>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="52">
         <v>3</v>
@@ -2211,7 +2199,7 @@
       <c r="O26" s="33"/>
       <c r="P26" s="30"/>
     </row>
-    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="52">
         <v>4</v>
@@ -2241,7 +2229,7 @@
       <c r="O27" s="33"/>
       <c r="P27" s="30"/>
     </row>
-    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="52"/>
       <c r="C28" s="51" t="s">
@@ -2261,7 +2249,7 @@
       <c r="O28" s="33"/>
       <c r="P28" s="30"/>
     </row>
-    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="52">
         <v>1</v>
@@ -2291,7 +2279,7 @@
       <c r="O29" s="33"/>
       <c r="P29" s="30"/>
     </row>
-    <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="52"/>
       <c r="C30" s="48"/>
@@ -2309,7 +2297,7 @@
       <c r="O30" s="33"/>
       <c r="P30" s="30"/>
     </row>
-    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="52"/>
       <c r="C31" s="48"/>
@@ -2340,10 +2328,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>49</v>
@@ -2362,7 +2350,7 @@
       <c r="O32" s="33"/>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="52">
         <v>1</v>
@@ -2392,7 +2380,7 @@
       <c r="O33" s="33"/>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="52">
         <v>2</v>
@@ -2422,7 +2410,7 @@
       <c r="O34" s="33"/>
       <c r="P34" s="30"/>
     </row>
-    <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="52">
         <v>3</v>
@@ -2452,7 +2440,7 @@
       <c r="O35" s="33"/>
       <c r="P35" s="30"/>
     </row>
-    <row r="36" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="52">
         <v>4</v>
@@ -2482,7 +2470,7 @@
       <c r="O36" s="33"/>
       <c r="P36" s="30"/>
     </row>
-    <row r="37" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="52"/>
       <c r="C37" s="51" t="s">
@@ -2502,7 +2490,7 @@
       <c r="O37" s="33"/>
       <c r="P37" s="30"/>
     </row>
-    <row r="38" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="52">
         <v>5</v>
@@ -2532,7 +2520,7 @@
       <c r="O38" s="33"/>
       <c r="P38" s="30"/>
     </row>
-    <row r="39" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="52"/>
       <c r="C39" s="48"/>
@@ -2550,7 +2538,7 @@
       <c r="O39" s="33"/>
       <c r="P39" s="30"/>
     </row>
-    <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="52"/>
       <c r="C40" s="48"/>
@@ -2579,10 +2567,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>47</v>
@@ -2601,7 +2589,7 @@
       <c r="O41" s="33"/>
       <c r="P41" s="30"/>
     </row>
-    <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="52">
         <v>1</v>
@@ -2631,7 +2619,7 @@
       <c r="O42" s="33"/>
       <c r="P42" s="30"/>
     </row>
-    <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="52">
         <v>2</v>
@@ -2661,7 +2649,7 @@
       <c r="O43" s="33"/>
       <c r="P43" s="30"/>
     </row>
-    <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="52">
         <v>3</v>
@@ -2691,7 +2679,7 @@
       <c r="O44" s="33"/>
       <c r="P44" s="30"/>
     </row>
-    <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="52">
         <v>4</v>
@@ -2721,7 +2709,7 @@
       <c r="O45" s="33"/>
       <c r="P45" s="30"/>
     </row>
-    <row r="46" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="52"/>
       <c r="C46" s="51" t="s">
@@ -2741,7 +2729,7 @@
       <c r="O46" s="33"/>
       <c r="P46" s="30"/>
     </row>
-    <row r="47" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="52">
         <v>5</v>
@@ -2771,7 +2759,7 @@
       <c r="O47" s="33"/>
       <c r="P47" s="30"/>
     </row>
-    <row r="48" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="52"/>
       <c r="C48" s="48"/>
@@ -2789,7 +2777,7 @@
       <c r="O48" s="33"/>
       <c r="P48" s="30"/>
     </row>
-    <row r="49" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="52"/>
       <c r="C49" s="48"/>
@@ -2807,7 +2795,7 @@
       <c r="O49" s="33"/>
       <c r="P49" s="30"/>
     </row>
-    <row r="50" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
@@ -2838,7 +2826,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A51" s="6"/>
       <c r="B51" s="87"/>
       <c r="C51" s="87"/>
@@ -2859,7 +2847,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A52" s="7"/>
       <c r="B52" s="105"/>
       <c r="C52" s="78"/>
@@ -2870,10 +2858,10 @@
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="L52" s="124"/>
+      <c r="K52" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="L52" s="125"/>
       <c r="M52" s="106">
         <f>+M50+M40+M31+M22</f>
         <v>0</v>
@@ -2881,13 +2869,13 @@
       <c r="N52" s="32"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A53" s="1"/>
       <c r="B53" s="103" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="65"/>
       <c r="E53" s="65"/>
@@ -2902,7 +2890,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="39"/>
       <c r="C54" s="61"/>
@@ -2919,7 +2907,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="56">
         <v>1</v>
@@ -2940,7 +2928,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="56"/>
       <c r="C56" s="62" t="s">
@@ -2954,7 +2942,7 @@
       <c r="I56" s="55"/>
       <c r="J56" s="89"/>
       <c r="K56" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L56" s="57"/>
       <c r="M56" s="58">
@@ -2964,7 +2952,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="56"/>
       <c r="C57" s="62"/>
@@ -2981,7 +2969,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="56"/>
       <c r="C58" s="63"/>
@@ -2998,7 +2986,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="56">
         <v>2</v>
@@ -3021,7 +3009,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A60" s="1"/>
       <c r="B60" s="56"/>
       <c r="C60" s="64" t="s">
@@ -3035,7 +3023,7 @@
       <c r="I60" s="55"/>
       <c r="J60" s="89"/>
       <c r="K60" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L60" s="57"/>
       <c r="M60" s="102">
@@ -3045,7 +3033,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="15.75" thickBot="1">
       <c r="A61" s="1"/>
       <c r="B61" s="87"/>
       <c r="C61" s="80"/>
@@ -3062,7 +3050,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A62" s="1"/>
       <c r="B62" s="105"/>
       <c r="C62" s="78"/>
@@ -3073,10 +3061,10 @@
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="L62" s="124"/>
+      <c r="K62" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="L62" s="125"/>
       <c r="M62" s="106">
         <f>M60+M56</f>
         <v>0</v>
@@ -3084,11 +3072,11 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A63" s="1"/>
       <c r="B63" s="109"/>
       <c r="C63" s="71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="72"/>
       <c r="E63" s="72"/>
@@ -3106,7 +3094,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="111"/>
       <c r="C64" s="74" t="s">
@@ -3128,7 +3116,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A65" s="1"/>
       <c r="B65" s="113"/>
       <c r="C65" s="114" t="s">
@@ -3150,7 +3138,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15.75">
       <c r="A66" s="1"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -3167,11 +3155,11 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="1"/>
@@ -3186,7 +3174,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -3203,7 +3191,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="1"/>
       <c r="C69" s="77"/>
       <c r="D69" s="77"/>
@@ -3211,17 +3199,17 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="J69" s="120"/>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
+      <c r="I69" s="126" t="s">
+        <v>67</v>
+      </c>
+      <c r="J69" s="121"/>
+      <c r="K69" s="121"/>
+      <c r="L69" s="121"/>
+      <c r="M69" s="121"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -3237,49 +3225,49 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="121"/>
-      <c r="D71" s="121"/>
-      <c r="E71" s="121"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="122"/>
+      <c r="E71" s="122"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="145" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" s="120"/>
-      <c r="K71" s="120"/>
-      <c r="L71" s="120"/>
-      <c r="M71" s="120"/>
+      <c r="I71" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="77"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="121"/>
-      <c r="D72" s="121"/>
-      <c r="E72" s="121"/>
+      <c r="B72" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="122"/>
+      <c r="D72" s="122"/>
+      <c r="E72" s="122"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="120" t="s">
+      <c r="I72" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="J72" s="120"/>
-      <c r="K72" s="120"/>
-      <c r="L72" s="120"/>
-      <c r="M72" s="120"/>
+      <c r="J72" s="121"/>
+      <c r="K72" s="121"/>
+      <c r="L72" s="121"/>
+      <c r="M72" s="121"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -3296,7 +3284,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
@@ -3305,16 +3293,17 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="153" t="s">
-        <v>68</v>
-      </c>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="I74" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="J74" s="126"/>
+      <c r="K74" s="126"/>
+      <c r="L74" s="126"/>
       <c r="M74" s="10"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="15.75">
       <c r="A75" s="1"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
@@ -3330,7 +3319,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15.75">
       <c r="A76" s="1"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
@@ -3346,14 +3335,14 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="122" t="s">
+      <c r="B77" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="123"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -3364,7 +3353,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
@@ -3380,7 +3369,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -3396,7 +3385,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -3408,7 +3397,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -3424,7 +3413,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -3440,7 +3429,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -3456,7 +3445,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -3472,7 +3461,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -3488,7 +3477,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -3504,7 +3493,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="15.75">
       <c r="A87" s="1"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -3521,7 +3510,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -3538,7 +3527,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3552,7 +3541,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -3566,7 +3555,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -3580,7 +3569,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -3594,7 +3583,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -3608,7 +3597,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3622,7 +3611,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3636,7 +3625,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3650,7 +3639,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3664,77 +3653,77 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="112" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="113" ht="20.100000000000001" customHeight="1"/>
+    <row r="114" ht="20.100000000000001" customHeight="1"/>
+    <row r="115" ht="20.100000000000001" customHeight="1"/>
+    <row r="116" ht="20.100000000000001" customHeight="1"/>
+    <row r="117" ht="20.100000000000001" customHeight="1"/>
+    <row r="118" ht="20.100000000000001" customHeight="1"/>
+    <row r="119" ht="20.100000000000001" customHeight="1"/>
+    <row r="120" ht="20.100000000000001" customHeight="1"/>
+    <row r="121" ht="20.100000000000001" customHeight="1"/>
+    <row r="122" ht="20.100000000000001" customHeight="1"/>
+    <row r="123" ht="20.100000000000001" customHeight="1"/>
+    <row r="124" ht="20.100000000000001" customHeight="1"/>
+    <row r="125" ht="20.100000000000001" customHeight="1"/>
+    <row r="126" ht="20.100000000000001" customHeight="1"/>
+    <row r="127" ht="20.100000000000001" customHeight="1"/>
+    <row r="128" ht="20.100000000000001" customHeight="1"/>
+    <row r="129" ht="20.100000000000001" customHeight="1"/>
+    <row r="130" ht="20.100000000000001" customHeight="1"/>
+    <row r="131" ht="20.100000000000001" customHeight="1"/>
+    <row r="132" ht="20.100000000000001" customHeight="1"/>
+    <row r="133" ht="20.100000000000001" customHeight="1"/>
+    <row r="134" ht="20.100000000000001" customHeight="1"/>
+    <row r="135" ht="20.100000000000001" customHeight="1"/>
+    <row r="136" ht="20.100000000000001" customHeight="1"/>
+    <row r="137" ht="20.100000000000001" customHeight="1"/>
+    <row r="138" ht="20.100000000000001" customHeight="1"/>
+    <row r="139" ht="20.100000000000001" customHeight="1"/>
+    <row r="140" ht="20.100000000000001" customHeight="1"/>
+    <row r="141" ht="20.100000000000001" customHeight="1"/>
+    <row r="142" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
     <mergeCell ref="I72:M72"/>
     <mergeCell ref="I69:M69"/>
     <mergeCell ref="B71:E71"/>
     <mergeCell ref="B77:E77"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="B72:E72"/>
-    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="K62:L62"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="2.35" bottom="0.39370078740157483" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -3744,14 +3733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
@@ -3766,7 +3755,7 @@
     <col min="11" max="11" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="10.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3779,7 +3768,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3792,7 +3781,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3805,7 +3794,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="19" t="s">
@@ -3820,7 +3809,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="9" t="s">
@@ -3835,7 +3824,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="9" t="s">
@@ -3856,7 +3845,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="9" t="s">
@@ -3877,7 +3866,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
@@ -3898,7 +3887,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
@@ -3919,7 +3908,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="12" t="s">
@@ -3940,7 +3929,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="17"/>
@@ -3953,51 +3942,51 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1"/>
+    <row r="17" ht="20.100000000000001" customHeight="1"/>
+    <row r="18" ht="20.100000000000001" customHeight="1"/>
+    <row r="19" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" ht="20.100000000000001" customHeight="1"/>
+    <row r="21" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" ht="20.100000000000001" customHeight="1"/>
+    <row r="37" ht="20.100000000000001" customHeight="1"/>
+    <row r="38" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" ht="20.100000000000001" customHeight="1"/>
+    <row r="40" ht="20.100000000000001" customHeight="1"/>
+    <row r="41" ht="20.100000000000001" customHeight="1"/>
+    <row r="42" ht="20.100000000000001" customHeight="1"/>
+    <row r="43" ht="20.100000000000001" customHeight="1"/>
+    <row r="44" ht="20.100000000000001" customHeight="1"/>
+    <row r="45" ht="20.100000000000001" customHeight="1"/>
+    <row r="46" ht="20.100000000000001" customHeight="1"/>
+    <row r="47" ht="20.100000000000001" customHeight="1"/>
+    <row r="48" ht="20.100000000000001" customHeight="1"/>
+    <row r="49" ht="20.100000000000001" customHeight="1"/>
+    <row r="50" ht="20.100000000000001" customHeight="1"/>
+    <row r="51" ht="20.100000000000001" customHeight="1"/>
+    <row r="52" ht="20.100000000000001" customHeight="1"/>
+    <row r="53" ht="20.100000000000001" customHeight="1"/>
+    <row r="54" ht="20.100000000000001" customHeight="1"/>
+    <row r="55" ht="20.100000000000001" customHeight="1"/>
+    <row r="56" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.43" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="125" orientation="landscape" r:id="rId1"/>
